--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>7365.261947001476</v>
+        <v>0.002949352024444444</v>
       </c>
       <c r="R2">
-        <v>66287.35752301328</v>
+        <v>0.02654416822</v>
       </c>
       <c r="S2">
-        <v>0.8910463924526862</v>
+        <v>0.0001344982634459018</v>
       </c>
       <c r="T2">
-        <v>0.891046392452686</v>
+        <v>0.0001344982634459018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>93.38290648414589</v>
+        <v>0.01631903734277778</v>
       </c>
       <c r="R3">
-        <v>840.446158357313</v>
+        <v>0.146871336085</v>
       </c>
       <c r="S3">
-        <v>0.01129742601664295</v>
+        <v>0.0007441913225417285</v>
       </c>
       <c r="T3">
-        <v>0.01129742601664295</v>
+        <v>0.0007441913225417285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>538.1763491954504</v>
+        <v>0.09404847493166667</v>
       </c>
       <c r="R4">
-        <v>4843.587142759054</v>
+        <v>0.846436274385</v>
       </c>
       <c r="S4">
-        <v>0.06510835567079758</v>
+        <v>0.004288859537012133</v>
       </c>
       <c r="T4">
-        <v>0.06510835567079758</v>
+        <v>0.004288859537012133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>200.9306118974223</v>
+        <v>0.4604233833288889</v>
       </c>
       <c r="R5">
-        <v>1808.3755070768</v>
+        <v>4.14381044996</v>
       </c>
       <c r="S5">
-        <v>0.02430850364220902</v>
+        <v>0.02099652567559719</v>
       </c>
       <c r="T5">
-        <v>0.02430850364220901</v>
+        <v>0.0209965256755972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>2.547565134225556</v>
@@ -818,10 +818,10 @@
         <v>22.92808620803</v>
       </c>
       <c r="S6">
-        <v>0.0003082033929986808</v>
+        <v>0.1161757171503477</v>
       </c>
       <c r="T6">
-        <v>0.0003082033929986807</v>
+        <v>0.1161757171503477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>14.68190865860334</v>
@@ -880,10 +880,10 @@
         <v>132.13717792743</v>
       </c>
       <c r="S7">
-        <v>0.001776211333514672</v>
+        <v>0.6695339187343911</v>
       </c>
       <c r="T7">
-        <v>0.001776211333514671</v>
+        <v>0.6695339187343912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>46.85761957399111</v>
+        <v>0.1073721098804444</v>
       </c>
       <c r="R8">
-        <v>421.71857616592</v>
+        <v>0.9663489889239999</v>
       </c>
       <c r="S8">
-        <v>0.005668815743521958</v>
+        <v>0.004896452577295375</v>
       </c>
       <c r="T8">
-        <v>0.005668815743521956</v>
+        <v>0.004896452577295377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
         <v>0.5940998077507778</v>
@@ -1004,10 +1004,10 @@
         <v>5.346898269756999</v>
       </c>
       <c r="S9">
-        <v>7.187395292419717E-05</v>
+        <v>0.0270925246609296</v>
       </c>
       <c r="T9">
-        <v>7.187395292419717E-05</v>
+        <v>0.0270925246609296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>3.423865005179666</v>
@@ -1066,10 +1066,10 @@
         <v>30.814785046617</v>
       </c>
       <c r="S10">
-        <v>0.0004142177947048281</v>
+        <v>0.1561373120784392</v>
       </c>
       <c r="T10">
-        <v>0.000414217794704828</v>
+        <v>0.1561373120784393</v>
       </c>
     </row>
   </sheetData>
